--- a/Unity/Assets/Config/Excel/PetSkinConfig.xlsx
+++ b/Unity/Assets/Config/Excel/PetSkinConfig.xlsx
@@ -207,7 +207,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="28">
+  <fonts count="26">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -398,21 +398,8 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Tahoma"/>
-      <charset val="134"/>
-    </font>
   </fonts>
-  <fills count="49">
+  <fills count="42">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -656,48 +643,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799951170384838"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -981,933 +926,933 @@
     <xf numFmtId="0" fontId="24" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="48" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="48" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="48" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="48" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="48" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="48" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="48" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="48" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="48" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="48" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="48" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="48" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="48" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="48" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="48" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="48" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="48" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="48" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="48" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="48" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2315,7 +2260,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2">
-    <tableStyle name="MySqlDefault" count="2" xr9:uid="{8D5F4EAB-FED1-473F-92CB-570E0E769CE1}">
+    <tableStyle name="MySqlDefault" count="2" xr9:uid="{2364F51F-BB31-4FB6-BF92-8B8892A138B8}">
       <tableStyleElement type="wholeTable" dxfId="1"/>
       <tableStyleElement type="headerRow" dxfId="0"/>
     </tableStyle>
@@ -2617,8 +2562,8 @@
   <sheetPr/>
   <dimension ref="B1:H66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="E68" sqref="E68"/>
+    <sheetView tabSelected="1" topLeftCell="A44" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6:F64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="7"/>
@@ -2722,7 +2667,7 @@
         <v>1000101</v>
       </c>
       <c r="F7" s="6">
-        <v>1000102</v>
+        <v>1000101</v>
       </c>
       <c r="G7" s="6" t="s">
         <v>15</v>
@@ -2742,7 +2687,7 @@
         <v>1000101</v>
       </c>
       <c r="F8" s="6">
-        <v>1000201</v>
+        <v>1000101</v>
       </c>
       <c r="G8" s="6">
         <v>0</v>
@@ -2760,7 +2705,7 @@
         <v>1000101</v>
       </c>
       <c r="F9" s="6">
-        <v>1000202</v>
+        <v>1000101</v>
       </c>
       <c r="G9" s="6" t="s">
         <v>15</v>
@@ -2780,7 +2725,7 @@
         <v>1000101</v>
       </c>
       <c r="F10" s="6">
-        <v>1000301</v>
+        <v>1000101</v>
       </c>
       <c r="G10" s="6">
         <v>0</v>
@@ -2798,7 +2743,7 @@
         <v>1000101</v>
       </c>
       <c r="F11" s="6">
-        <v>1000302</v>
+        <v>1000101</v>
       </c>
       <c r="G11" s="6" t="s">
         <v>15</v>
@@ -2818,7 +2763,7 @@
         <v>1000101</v>
       </c>
       <c r="F12" s="6">
-        <v>1000401</v>
+        <v>1000101</v>
       </c>
       <c r="G12" s="6">
         <v>0</v>
@@ -2836,7 +2781,7 @@
         <v>1000101</v>
       </c>
       <c r="F13" s="6">
-        <v>1000402</v>
+        <v>1000101</v>
       </c>
       <c r="G13" s="6" t="s">
         <v>15</v>
@@ -2856,7 +2801,7 @@
         <v>1000101</v>
       </c>
       <c r="F14" s="6">
-        <v>1000403</v>
+        <v>1000101</v>
       </c>
       <c r="G14" s="6" t="s">
         <v>23</v>
@@ -2876,7 +2821,7 @@
         <v>1000101</v>
       </c>
       <c r="F15" s="6">
-        <v>1000404</v>
+        <v>1000101</v>
       </c>
       <c r="G15" s="6" t="s">
         <v>15</v>
@@ -2896,7 +2841,7 @@
         <v>1000101</v>
       </c>
       <c r="F16" s="6">
-        <v>1000501</v>
+        <v>1000101</v>
       </c>
       <c r="G16" s="6">
         <v>0</v>
@@ -2914,7 +2859,7 @@
         <v>1000101</v>
       </c>
       <c r="F17" s="6">
-        <v>1000502</v>
+        <v>1000101</v>
       </c>
       <c r="G17" s="6" t="s">
         <v>15</v>
@@ -2934,7 +2879,7 @@
         <v>1000101</v>
       </c>
       <c r="F18" s="6">
-        <v>1000503</v>
+        <v>1000101</v>
       </c>
       <c r="G18" s="6" t="s">
         <v>23</v>
@@ -2954,7 +2899,7 @@
         <v>1000101</v>
       </c>
       <c r="F19" s="6">
-        <v>1000504</v>
+        <v>1000101</v>
       </c>
       <c r="G19" s="6" t="s">
         <v>15</v>
@@ -2974,7 +2919,7 @@
         <v>1000101</v>
       </c>
       <c r="F20" s="6">
-        <v>1000601</v>
+        <v>1000101</v>
       </c>
       <c r="G20" s="6">
         <v>0</v>
@@ -2992,7 +2937,7 @@
         <v>1000101</v>
       </c>
       <c r="F21" s="6">
-        <v>1000602</v>
+        <v>1000101</v>
       </c>
       <c r="G21" s="6" t="s">
         <v>15</v>
@@ -3012,7 +2957,7 @@
         <v>1000101</v>
       </c>
       <c r="F22" s="6">
-        <v>1000603</v>
+        <v>1000101</v>
       </c>
       <c r="G22" s="6" t="s">
         <v>15</v>
@@ -3032,7 +2977,7 @@
         <v>1000101</v>
       </c>
       <c r="F23" s="6">
-        <v>1000701</v>
+        <v>1000101</v>
       </c>
       <c r="G23" s="6">
         <v>0</v>
@@ -3050,7 +2995,7 @@
         <v>1000101</v>
       </c>
       <c r="F24" s="6">
-        <v>1000702</v>
+        <v>1000101</v>
       </c>
       <c r="G24" s="6" t="s">
         <v>15</v>
@@ -3070,7 +3015,7 @@
         <v>1000101</v>
       </c>
       <c r="F25" s="6">
-        <v>1000703</v>
+        <v>1000101</v>
       </c>
       <c r="G25" s="6" t="s">
         <v>23</v>
@@ -3090,7 +3035,7 @@
         <v>1000101</v>
       </c>
       <c r="F26" s="6">
-        <v>1000704</v>
+        <v>1000101</v>
       </c>
       <c r="G26" s="6" t="s">
         <v>15</v>
@@ -3110,7 +3055,7 @@
         <v>1000101</v>
       </c>
       <c r="F27" s="6">
-        <v>1000801</v>
+        <v>1000101</v>
       </c>
       <c r="G27" s="6">
         <v>0</v>
@@ -3128,7 +3073,7 @@
         <v>1000101</v>
       </c>
       <c r="F28" s="6">
-        <v>1000802</v>
+        <v>1000101</v>
       </c>
       <c r="G28" s="6" t="s">
         <v>15</v>
@@ -3148,7 +3093,7 @@
         <v>1000101</v>
       </c>
       <c r="F29" s="6">
-        <v>1000901</v>
+        <v>1000101</v>
       </c>
       <c r="G29" s="6">
         <v>0</v>
@@ -3166,7 +3111,7 @@
         <v>1000101</v>
       </c>
       <c r="F30" s="6">
-        <v>1000902</v>
+        <v>1000101</v>
       </c>
       <c r="G30" s="6" t="s">
         <v>15</v>
@@ -3186,7 +3131,7 @@
         <v>1000101</v>
       </c>
       <c r="F31" s="6">
-        <v>1000903</v>
+        <v>1000101</v>
       </c>
       <c r="G31" s="6" t="s">
         <v>23</v>
@@ -3206,7 +3151,7 @@
         <v>1000101</v>
       </c>
       <c r="F32" s="6">
-        <v>1000904</v>
+        <v>1000101</v>
       </c>
       <c r="G32" s="6" t="s">
         <v>15</v>
@@ -3226,7 +3171,7 @@
         <v>1000101</v>
       </c>
       <c r="F33" s="6">
-        <v>1001001</v>
+        <v>1000101</v>
       </c>
       <c r="G33" s="6">
         <v>0</v>
@@ -3244,7 +3189,7 @@
         <v>1000101</v>
       </c>
       <c r="F34" s="6">
-        <v>1001002</v>
+        <v>1000101</v>
       </c>
       <c r="G34" s="6" t="s">
         <v>15</v>
@@ -3264,7 +3209,7 @@
         <v>1000101</v>
       </c>
       <c r="F35" s="6">
-        <v>1001003</v>
+        <v>1000101</v>
       </c>
       <c r="G35" s="6" t="s">
         <v>23</v>
@@ -3284,7 +3229,7 @@
         <v>1000101</v>
       </c>
       <c r="F36" s="6">
-        <v>1001004</v>
+        <v>1000101</v>
       </c>
       <c r="G36" s="6" t="s">
         <v>15</v>
@@ -3304,7 +3249,7 @@
         <v>1000101</v>
       </c>
       <c r="F37" s="6">
-        <v>1001101</v>
+        <v>1000101</v>
       </c>
       <c r="G37" s="6">
         <v>0</v>
@@ -3322,7 +3267,7 @@
         <v>1000101</v>
       </c>
       <c r="F38" s="6">
-        <v>1001102</v>
+        <v>1000101</v>
       </c>
       <c r="G38" s="6" t="s">
         <v>15</v>
@@ -3342,7 +3287,7 @@
         <v>1000101</v>
       </c>
       <c r="F39" s="6">
-        <v>1001103</v>
+        <v>1000101</v>
       </c>
       <c r="G39" s="6" t="s">
         <v>15</v>
@@ -3362,7 +3307,7 @@
         <v>1000101</v>
       </c>
       <c r="F40" s="6">
-        <v>1001201</v>
+        <v>1000101</v>
       </c>
       <c r="G40" s="6">
         <v>0</v>
@@ -3380,7 +3325,7 @@
         <v>1000101</v>
       </c>
       <c r="F41" s="6">
-        <v>1001202</v>
+        <v>1000101</v>
       </c>
       <c r="G41" s="6" t="s">
         <v>15</v>
@@ -3400,7 +3345,7 @@
         <v>1000101</v>
       </c>
       <c r="F42" s="6">
-        <v>1001203</v>
+        <v>1000101</v>
       </c>
       <c r="G42" s="6" t="s">
         <v>15</v>
@@ -3420,7 +3365,7 @@
         <v>1000101</v>
       </c>
       <c r="F43" s="6">
-        <v>1001301</v>
+        <v>1000101</v>
       </c>
       <c r="G43" s="6">
         <v>0</v>
@@ -3438,7 +3383,7 @@
         <v>1000101</v>
       </c>
       <c r="F44" s="6">
-        <v>1001302</v>
+        <v>1000101</v>
       </c>
       <c r="G44" s="6" t="s">
         <v>15</v>
@@ -3458,7 +3403,7 @@
         <v>1000101</v>
       </c>
       <c r="F45" s="6">
-        <v>1001303</v>
+        <v>1000101</v>
       </c>
       <c r="G45" s="6" t="s">
         <v>23</v>
@@ -3478,7 +3423,7 @@
         <v>1000101</v>
       </c>
       <c r="F46" s="6">
-        <v>1001304</v>
+        <v>1000101</v>
       </c>
       <c r="G46" s="6" t="s">
         <v>15</v>
@@ -3498,7 +3443,7 @@
         <v>1000101</v>
       </c>
       <c r="F47" s="6">
-        <v>1001401</v>
+        <v>1000101</v>
       </c>
       <c r="G47" s="6">
         <v>0</v>
@@ -3516,7 +3461,7 @@
         <v>1000101</v>
       </c>
       <c r="F48" s="6">
-        <v>1001402</v>
+        <v>1000101</v>
       </c>
       <c r="G48" s="6" t="s">
         <v>15</v>
@@ -3536,7 +3481,7 @@
         <v>1000101</v>
       </c>
       <c r="F49" s="6">
-        <v>1001403</v>
+        <v>1000101</v>
       </c>
       <c r="G49" s="6" t="s">
         <v>15</v>
@@ -3556,7 +3501,7 @@
         <v>1000101</v>
       </c>
       <c r="F50" s="6">
-        <v>1009101</v>
+        <v>1000101</v>
       </c>
       <c r="G50" s="6">
         <v>0</v>
@@ -3574,7 +3519,7 @@
         <v>1000101</v>
       </c>
       <c r="F51" s="6">
-        <v>1009102</v>
+        <v>1000101</v>
       </c>
       <c r="G51" s="6" t="s">
         <v>15</v>
@@ -3594,7 +3539,7 @@
         <v>1000101</v>
       </c>
       <c r="F52" s="6">
-        <v>1009103</v>
+        <v>1000101</v>
       </c>
       <c r="G52" s="6" t="s">
         <v>23</v>
@@ -3614,7 +3559,7 @@
         <v>1000101</v>
       </c>
       <c r="F53" s="6">
-        <v>1009104</v>
+        <v>1000101</v>
       </c>
       <c r="G53" s="6" t="s">
         <v>15</v>
@@ -3634,7 +3579,7 @@
         <v>1000101</v>
       </c>
       <c r="F54" s="6">
-        <v>1009201</v>
+        <v>1000101</v>
       </c>
       <c r="G54" s="6">
         <v>0</v>
@@ -3652,7 +3597,7 @@
         <v>1000101</v>
       </c>
       <c r="F55" s="6">
-        <v>1009202</v>
+        <v>1000101</v>
       </c>
       <c r="G55" s="6" t="s">
         <v>15</v>
@@ -3672,7 +3617,7 @@
         <v>1000101</v>
       </c>
       <c r="F56" s="6">
-        <v>1009203</v>
+        <v>1000101</v>
       </c>
       <c r="G56" s="6" t="s">
         <v>23</v>
@@ -3692,7 +3637,7 @@
         <v>1000101</v>
       </c>
       <c r="F57" s="6">
-        <v>1009204</v>
+        <v>1000101</v>
       </c>
       <c r="G57" s="6" t="s">
         <v>15</v>
@@ -3712,7 +3657,7 @@
         <v>1000101</v>
       </c>
       <c r="F58" s="6">
-        <v>1009301</v>
+        <v>1000101</v>
       </c>
       <c r="G58" s="6">
         <v>0</v>
@@ -3730,7 +3675,7 @@
         <v>1000101</v>
       </c>
       <c r="F59" s="6">
-        <v>1009302</v>
+        <v>1000101</v>
       </c>
       <c r="G59" s="6" t="s">
         <v>15</v>
@@ -3750,7 +3695,7 @@
         <v>1000101</v>
       </c>
       <c r="F60" s="6">
-        <v>1009303</v>
+        <v>1000101</v>
       </c>
       <c r="G60" s="6" t="s">
         <v>23</v>
@@ -3770,7 +3715,7 @@
         <v>1000101</v>
       </c>
       <c r="F61" s="6">
-        <v>1009304</v>
+        <v>1000101</v>
       </c>
       <c r="G61" s="6" t="s">
         <v>15</v>
@@ -3790,7 +3735,7 @@
         <v>1000101</v>
       </c>
       <c r="F62" s="6">
-        <v>2000001</v>
+        <v>1000101</v>
       </c>
       <c r="G62" s="6" t="s">
         <v>52</v>
@@ -3810,7 +3755,7 @@
         <v>1000101</v>
       </c>
       <c r="F63" s="6">
-        <v>2000002</v>
+        <v>1000101</v>
       </c>
       <c r="G63" s="6" t="s">
         <v>52</v>
@@ -3830,7 +3775,7 @@
         <v>1000101</v>
       </c>
       <c r="F64" s="6">
-        <v>2000003</v>
+        <v>1000101</v>
       </c>
       <c r="G64" s="6" t="s">
         <v>52</v>

--- a/Unity/Assets/Config/Excel/PetSkinConfig.xlsx
+++ b/Unity/Assets/Config/Excel/PetSkinConfig.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitMengJing\Unity\Assets\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C88C5FD-5E98-4890-AEA7-451B54D6E99B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{675B976E-16EE-42C1-89EF-C3A517FC70D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="101">
   <si>
     <t>Id</t>
   </si>
@@ -299,6 +299,30 @@
   </si>
   <si>
     <t>熔岩护卫</t>
+  </si>
+  <si>
+    <t>邪恶鳄鱼</t>
+  </si>
+  <si>
+    <t>火焰松鼠</t>
+  </si>
+  <si>
+    <t>冰雪人</t>
+  </si>
+  <si>
+    <t>火焰之树</t>
+  </si>
+  <si>
+    <t>天空守卫</t>
+  </si>
+  <si>
+    <t>白羽蝴蝶</t>
+  </si>
+  <si>
+    <t>熔岩之魔</t>
+  </si>
+  <si>
+    <t>天狼蜘蛛</t>
   </si>
 </sst>
 </file>
@@ -2151,10 +2175,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:H103"/>
+  <dimension ref="B1:H111"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
-      <selection activeCell="A43" sqref="A43:XFD44"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="F50" sqref="F50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2930,186 +2954,184 @@
       </c>
       <c r="H42" s="8"/>
     </row>
-    <row r="43" spans="2:8" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B43" s="9"/>
-      <c r="C43" s="10">
+    <row r="43" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B43" s="6"/>
+      <c r="C43" s="7">
+        <v>400001</v>
+      </c>
+      <c r="D43" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="E43" s="7">
+        <v>400001</v>
+      </c>
+      <c r="F43" s="7">
+        <v>400001</v>
+      </c>
+      <c r="G43" s="8">
+        <v>0</v>
+      </c>
+      <c r="H43" s="8"/>
+    </row>
+    <row r="44" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B44" s="6"/>
+      <c r="C44" s="7">
+        <v>400002</v>
+      </c>
+      <c r="D44" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="E44" s="7">
+        <v>400002</v>
+      </c>
+      <c r="F44" s="7">
+        <v>400002</v>
+      </c>
+      <c r="G44" s="8">
+        <v>0</v>
+      </c>
+      <c r="H44" s="8"/>
+    </row>
+    <row r="45" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B45" s="6"/>
+      <c r="C45" s="7">
+        <v>400003</v>
+      </c>
+      <c r="D45" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="E45" s="7">
+        <v>400003</v>
+      </c>
+      <c r="F45" s="7">
+        <v>400003</v>
+      </c>
+      <c r="G45" s="8">
+        <v>0</v>
+      </c>
+      <c r="H45" s="8"/>
+    </row>
+    <row r="46" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B46" s="6"/>
+      <c r="C46" s="7">
+        <v>400004</v>
+      </c>
+      <c r="D46" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="E46" s="7">
+        <v>400004</v>
+      </c>
+      <c r="F46" s="7">
+        <v>400004</v>
+      </c>
+      <c r="G46" s="8">
+        <v>0</v>
+      </c>
+      <c r="H46" s="8"/>
+    </row>
+    <row r="47" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B47" s="6"/>
+      <c r="C47" s="7">
+        <v>400005</v>
+      </c>
+      <c r="D47" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="E47" s="7">
+        <v>400005</v>
+      </c>
+      <c r="F47" s="7">
+        <v>400005</v>
+      </c>
+      <c r="G47" s="8">
+        <v>0</v>
+      </c>
+      <c r="H47" s="8"/>
+    </row>
+    <row r="48" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B48" s="6"/>
+      <c r="C48" s="7">
+        <v>400006</v>
+      </c>
+      <c r="D48" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="E48" s="7">
+        <v>400006</v>
+      </c>
+      <c r="F48" s="7">
+        <v>400006</v>
+      </c>
+      <c r="G48" s="8">
+        <v>0</v>
+      </c>
+      <c r="H48" s="8"/>
+    </row>
+    <row r="49" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B49" s="6"/>
+      <c r="C49" s="7">
+        <v>400007</v>
+      </c>
+      <c r="D49" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="E49" s="7">
+        <v>400007</v>
+      </c>
+      <c r="F49" s="7">
+        <v>400007</v>
+      </c>
+      <c r="G49" s="8">
+        <v>0</v>
+      </c>
+      <c r="H49" s="8"/>
+    </row>
+    <row r="50" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B50" s="6"/>
+      <c r="C50" s="7">
+        <v>400008</v>
+      </c>
+      <c r="D50" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="E50" s="7">
+        <v>400008</v>
+      </c>
+      <c r="F50" s="7">
+        <v>400008</v>
+      </c>
+      <c r="G50" s="8">
+        <v>0</v>
+      </c>
+      <c r="H50" s="8"/>
+    </row>
+    <row r="51" spans="2:8" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B51" s="9"/>
+      <c r="C51" s="10">
         <v>10101</v>
       </c>
-      <c r="D43" s="10" t="s">
+      <c r="D51" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="E43" s="10">
-        <v>1000101</v>
-      </c>
-      <c r="F43" s="10">
-        <v>1000101</v>
-      </c>
-      <c r="G43" s="10">
-        <v>0</v>
-      </c>
-      <c r="H43" s="10"/>
-    </row>
-    <row r="44" spans="2:8" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B44" s="9"/>
-      <c r="C44" s="10">
+      <c r="E51" s="10">
+        <v>1000101</v>
+      </c>
+      <c r="F51" s="10">
+        <v>1000101</v>
+      </c>
+      <c r="G51" s="10">
+        <v>0</v>
+      </c>
+      <c r="H51" s="10"/>
+    </row>
+    <row r="52" spans="2:8" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B52" s="9"/>
+      <c r="C52" s="10">
         <v>10102</v>
       </c>
-      <c r="D44" s="10" t="s">
+      <c r="D52" s="10" t="s">
         <v>17</v>
-      </c>
-      <c r="E44" s="10">
-        <v>1000101</v>
-      </c>
-      <c r="F44" s="10">
-        <v>1000101</v>
-      </c>
-      <c r="G44" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="H44" s="10" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="45" spans="2:8" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C45" s="10">
-        <v>20101</v>
-      </c>
-      <c r="D45" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="E45" s="10">
-        <v>1000101</v>
-      </c>
-      <c r="F45" s="10">
-        <v>1000101</v>
-      </c>
-      <c r="G45" s="10">
-        <v>0</v>
-      </c>
-      <c r="H45" s="10"/>
-    </row>
-    <row r="46" spans="2:8" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C46" s="10">
-        <v>20102</v>
-      </c>
-      <c r="D46" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="E46" s="10">
-        <v>1000101</v>
-      </c>
-      <c r="F46" s="10">
-        <v>1000101</v>
-      </c>
-      <c r="G46" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="H46" s="10" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="47" spans="2:8" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C47" s="10">
-        <v>30101</v>
-      </c>
-      <c r="D47" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="E47" s="10">
-        <v>1000101</v>
-      </c>
-      <c r="F47" s="10">
-        <v>1000101</v>
-      </c>
-      <c r="G47" s="10">
-        <v>0</v>
-      </c>
-      <c r="H47" s="10"/>
-    </row>
-    <row r="48" spans="2:8" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C48" s="10">
-        <v>30102</v>
-      </c>
-      <c r="D48" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="E48" s="10">
-        <v>1000101</v>
-      </c>
-      <c r="F48" s="10">
-        <v>1000101</v>
-      </c>
-      <c r="G48" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="H48" s="10" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="49" spans="3:8" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C49" s="10">
-        <v>40101</v>
-      </c>
-      <c r="D49" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="E49" s="10">
-        <v>1000101</v>
-      </c>
-      <c r="F49" s="10">
-        <v>1000101</v>
-      </c>
-      <c r="G49" s="10">
-        <v>0</v>
-      </c>
-      <c r="H49" s="10"/>
-    </row>
-    <row r="50" spans="3:8" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C50" s="10">
-        <v>40102</v>
-      </c>
-      <c r="D50" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="E50" s="10">
-        <v>1000101</v>
-      </c>
-      <c r="F50" s="10">
-        <v>1000101</v>
-      </c>
-      <c r="G50" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="H50" s="10" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="51" spans="3:8" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C51" s="10">
-        <v>401031</v>
-      </c>
-      <c r="D51" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="E51" s="10">
-        <v>1000101</v>
-      </c>
-      <c r="F51" s="10">
-        <v>1000101</v>
-      </c>
-      <c r="G51" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="H51" s="10" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="52" spans="3:8" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C52" s="10">
-        <v>401042</v>
-      </c>
-      <c r="D52" s="10" t="s">
-        <v>25</v>
       </c>
       <c r="E52" s="10">
         <v>1000101</v>
@@ -3124,12 +3146,12 @@
         <v>19</v>
       </c>
     </row>
-    <row r="53" spans="3:8" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="2:8" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C53" s="10">
-        <v>50101</v>
+        <v>20101</v>
       </c>
       <c r="D53" s="10" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="E53" s="10">
         <v>1000101</v>
@@ -3142,12 +3164,12 @@
       </c>
       <c r="H53" s="10"/>
     </row>
-    <row r="54" spans="3:8" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="2:8" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C54" s="10">
-        <v>50102</v>
+        <v>20102</v>
       </c>
       <c r="D54" s="10" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="E54" s="10">
         <v>1000101</v>
@@ -3162,12 +3184,12 @@
         <v>19</v>
       </c>
     </row>
-    <row r="55" spans="3:8" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="2:8" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C55" s="10">
-        <v>501031</v>
+        <v>30101</v>
       </c>
       <c r="D55" s="10" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="E55" s="10">
         <v>1000101</v>
@@ -3175,19 +3197,17 @@
       <c r="F55" s="10">
         <v>1000101</v>
       </c>
-      <c r="G55" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="H55" s="10" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="56" spans="3:8" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G55" s="10">
+        <v>0</v>
+      </c>
+      <c r="H55" s="10"/>
+    </row>
+    <row r="56" spans="2:8" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C56" s="10">
-        <v>501041</v>
+        <v>30102</v>
       </c>
       <c r="D56" s="10" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="E56" s="10">
         <v>1000101</v>
@@ -3202,12 +3222,12 @@
         <v>19</v>
       </c>
     </row>
-    <row r="57" spans="3:8" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="2:8" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C57" s="10">
-        <v>60101</v>
+        <v>40101</v>
       </c>
       <c r="D57" s="10" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="E57" s="10">
         <v>1000101</v>
@@ -3220,12 +3240,12 @@
       </c>
       <c r="H57" s="10"/>
     </row>
-    <row r="58" spans="3:8" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="2:8" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C58" s="10">
-        <v>60102</v>
+        <v>40102</v>
       </c>
       <c r="D58" s="10" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="E58" s="10">
         <v>1000101</v>
@@ -3240,12 +3260,12 @@
         <v>19</v>
       </c>
     </row>
-    <row r="59" spans="3:8" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="2:8" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C59" s="10">
-        <v>601031</v>
+        <v>401031</v>
       </c>
       <c r="D59" s="10" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="E59" s="10">
         <v>1000101</v>
@@ -3254,36 +3274,38 @@
         <v>1000101</v>
       </c>
       <c r="G59" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="H59" s="10" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="60" spans="2:8" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C60" s="10">
+        <v>401042</v>
+      </c>
+      <c r="D60" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="E60" s="10">
+        <v>1000101</v>
+      </c>
+      <c r="F60" s="10">
+        <v>1000101</v>
+      </c>
+      <c r="G60" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="H59" s="10" t="s">
+      <c r="H60" s="10" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="60" spans="3:8" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C60" s="10">
-        <v>70101</v>
-      </c>
-      <c r="D60" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="E60" s="10">
-        <v>1000101</v>
-      </c>
-      <c r="F60" s="10">
-        <v>1000101</v>
-      </c>
-      <c r="G60" s="10">
-        <v>0</v>
-      </c>
-      <c r="H60" s="10"/>
-    </row>
-    <row r="61" spans="3:8" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="2:8" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C61" s="10">
-        <v>70102</v>
+        <v>50101</v>
       </c>
       <c r="D61" s="10" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="E61" s="10">
         <v>1000101</v>
@@ -3291,77 +3313,77 @@
       <c r="F61" s="10">
         <v>1000101</v>
       </c>
-      <c r="G61" s="10" t="s">
+      <c r="G61" s="10">
+        <v>0</v>
+      </c>
+      <c r="H61" s="10"/>
+    </row>
+    <row r="62" spans="2:8" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C62" s="10">
+        <v>50102</v>
+      </c>
+      <c r="D62" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="E62" s="10">
+        <v>1000101</v>
+      </c>
+      <c r="F62" s="10">
+        <v>1000101</v>
+      </c>
+      <c r="G62" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="H61" s="10" t="s">
+      <c r="H62" s="10" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="62" spans="3:8" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C62" s="10">
-        <v>701031</v>
-      </c>
-      <c r="D62" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="E62" s="10">
-        <v>1000101</v>
-      </c>
-      <c r="F62" s="10">
-        <v>1000101</v>
-      </c>
-      <c r="G62" s="10" t="s">
+    <row r="63" spans="2:8" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C63" s="10">
+        <v>501031</v>
+      </c>
+      <c r="D63" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="E63" s="10">
+        <v>1000101</v>
+      </c>
+      <c r="F63" s="10">
+        <v>1000101</v>
+      </c>
+      <c r="G63" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="H62" s="10" t="s">
+      <c r="H63" s="10" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="63" spans="3:8" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C63" s="10">
-        <v>701041</v>
-      </c>
-      <c r="D63" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="E63" s="10">
-        <v>1000101</v>
-      </c>
-      <c r="F63" s="10">
-        <v>1000101</v>
-      </c>
-      <c r="G63" s="10" t="s">
+    <row r="64" spans="2:8" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C64" s="10">
+        <v>501041</v>
+      </c>
+      <c r="D64" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="E64" s="10">
+        <v>1000101</v>
+      </c>
+      <c r="F64" s="10">
+        <v>1000101</v>
+      </c>
+      <c r="G64" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="H63" s="10" t="s">
+      <c r="H64" s="10" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="64" spans="3:8" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C64" s="10">
-        <v>80101</v>
-      </c>
-      <c r="D64" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="E64" s="10">
-        <v>1000101</v>
-      </c>
-      <c r="F64" s="10">
-        <v>1000101</v>
-      </c>
-      <c r="G64" s="10">
-        <v>0</v>
-      </c>
-      <c r="H64" s="10"/>
     </row>
     <row r="65" spans="3:8" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C65" s="10">
-        <v>80102</v>
+        <v>60101</v>
       </c>
       <c r="D65" s="10" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="E65" s="10">
         <v>1000101</v>
@@ -3369,19 +3391,17 @@
       <c r="F65" s="10">
         <v>1000101</v>
       </c>
-      <c r="G65" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="H65" s="10" t="s">
-        <v>19</v>
-      </c>
+      <c r="G65" s="10">
+        <v>0</v>
+      </c>
+      <c r="H65" s="10"/>
     </row>
     <row r="66" spans="3:8" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C66" s="10">
-        <v>90101</v>
+        <v>60102</v>
       </c>
       <c r="D66" s="10" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="E66" s="10">
         <v>1000101</v>
@@ -3389,17 +3409,19 @@
       <c r="F66" s="10">
         <v>1000101</v>
       </c>
-      <c r="G66" s="10">
-        <v>0</v>
-      </c>
-      <c r="H66" s="10"/>
+      <c r="G66" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="H66" s="10" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="67" spans="3:8" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C67" s="10">
-        <v>90102</v>
+        <v>601031</v>
       </c>
       <c r="D67" s="10" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="E67" s="10">
         <v>1000101</v>
@@ -3416,10 +3438,10 @@
     </row>
     <row r="68" spans="3:8" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C68" s="10">
-        <v>901031</v>
+        <v>70101</v>
       </c>
       <c r="D68" s="10" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="E68" s="10">
         <v>1000101</v>
@@ -3427,19 +3449,17 @@
       <c r="F68" s="10">
         <v>1000101</v>
       </c>
-      <c r="G68" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="H68" s="10" t="s">
-        <v>27</v>
-      </c>
+      <c r="G68" s="10">
+        <v>0</v>
+      </c>
+      <c r="H68" s="10"/>
     </row>
     <row r="69" spans="3:8" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C69" s="10">
-        <v>901041</v>
+        <v>70102</v>
       </c>
       <c r="D69" s="10" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="E69" s="10">
         <v>1000101</v>
@@ -3456,10 +3476,10 @@
     </row>
     <row r="70" spans="3:8" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C70" s="10">
-        <v>100101</v>
+        <v>701031</v>
       </c>
       <c r="D70" s="10" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="E70" s="10">
         <v>1000101</v>
@@ -3467,17 +3487,19 @@
       <c r="F70" s="10">
         <v>1000101</v>
       </c>
-      <c r="G70" s="10">
-        <v>0</v>
-      </c>
-      <c r="H70" s="10"/>
+      <c r="G70" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="H70" s="10" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="71" spans="3:8" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C71" s="10">
-        <v>100102</v>
+        <v>701041</v>
       </c>
       <c r="D71" s="10" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="E71" s="10">
         <v>1000101</v>
@@ -3494,10 +3516,10 @@
     </row>
     <row r="72" spans="3:8" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C72" s="10">
-        <v>1001031</v>
+        <v>80101</v>
       </c>
       <c r="D72" s="10" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="E72" s="10">
         <v>1000101</v>
@@ -3505,19 +3527,17 @@
       <c r="F72" s="10">
         <v>1000101</v>
       </c>
-      <c r="G72" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="H72" s="10" t="s">
-        <v>27</v>
-      </c>
+      <c r="G72" s="10">
+        <v>0</v>
+      </c>
+      <c r="H72" s="10"/>
     </row>
     <row r="73" spans="3:8" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C73" s="10">
-        <v>1001041</v>
+        <v>80102</v>
       </c>
       <c r="D73" s="10" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="E73" s="10">
         <v>1000101</v>
@@ -3534,10 +3554,10 @@
     </row>
     <row r="74" spans="3:8" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C74" s="10">
-        <v>110101</v>
+        <v>90101</v>
       </c>
       <c r="D74" s="10" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="E74" s="10">
         <v>1000101</v>
@@ -3552,10 +3572,10 @@
     </row>
     <row r="75" spans="3:8" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C75" s="10">
-        <v>110102</v>
+        <v>90102</v>
       </c>
       <c r="D75" s="10" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="E75" s="10">
         <v>1000101</v>
@@ -3572,10 +3592,10 @@
     </row>
     <row r="76" spans="3:8" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C76" s="10">
-        <v>1101031</v>
+        <v>901031</v>
       </c>
       <c r="D76" s="10" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="E76" s="10">
         <v>1000101</v>
@@ -3584,18 +3604,18 @@
         <v>1000101</v>
       </c>
       <c r="G76" s="10" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="H76" s="10" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
     </row>
     <row r="77" spans="3:8" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C77" s="10">
-        <v>120101</v>
+        <v>901041</v>
       </c>
       <c r="D77" s="10" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="E77" s="10">
         <v>1000101</v>
@@ -3603,17 +3623,19 @@
       <c r="F77" s="10">
         <v>1000101</v>
       </c>
-      <c r="G77" s="10">
-        <v>0</v>
-      </c>
-      <c r="H77" s="10"/>
+      <c r="G77" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="H77" s="10" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="78" spans="3:8" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C78" s="10">
-        <v>120102</v>
+        <v>100101</v>
       </c>
       <c r="D78" s="10" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="E78" s="10">
         <v>1000101</v>
@@ -3621,19 +3643,17 @@
       <c r="F78" s="10">
         <v>1000101</v>
       </c>
-      <c r="G78" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="H78" s="10" t="s">
-        <v>19</v>
-      </c>
+      <c r="G78" s="10">
+        <v>0</v>
+      </c>
+      <c r="H78" s="10"/>
     </row>
     <row r="79" spans="3:8" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C79" s="10">
-        <v>1201031</v>
+        <v>100102</v>
       </c>
       <c r="D79" s="10" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="E79" s="10">
         <v>1000101</v>
@@ -3650,10 +3670,10 @@
     </row>
     <row r="80" spans="3:8" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C80" s="10">
-        <v>130101</v>
+        <v>1001031</v>
       </c>
       <c r="D80" s="10" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="E80" s="10">
         <v>1000101</v>
@@ -3661,17 +3681,19 @@
       <c r="F80" s="10">
         <v>1000101</v>
       </c>
-      <c r="G80" s="10">
-        <v>0</v>
-      </c>
-      <c r="H80" s="10"/>
+      <c r="G80" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="H80" s="10" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="81" spans="3:8" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C81" s="10">
-        <v>130102</v>
+        <v>1001041</v>
       </c>
       <c r="D81" s="10" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="E81" s="10">
         <v>1000101</v>
@@ -3688,10 +3710,10 @@
     </row>
     <row r="82" spans="3:8" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C82" s="10">
-        <v>1301031</v>
+        <v>110101</v>
       </c>
       <c r="D82" s="10" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="E82" s="10">
         <v>1000101</v>
@@ -3699,19 +3721,17 @@
       <c r="F82" s="10">
         <v>1000101</v>
       </c>
-      <c r="G82" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="H82" s="10" t="s">
-        <v>27</v>
-      </c>
+      <c r="G82" s="10">
+        <v>0</v>
+      </c>
+      <c r="H82" s="10"/>
     </row>
     <row r="83" spans="3:8" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C83" s="10">
-        <v>1301041</v>
+        <v>110102</v>
       </c>
       <c r="D83" s="10" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="E83" s="10">
         <v>1000101</v>
@@ -3728,10 +3748,10 @@
     </row>
     <row r="84" spans="3:8" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C84" s="10">
-        <v>140101</v>
+        <v>1101031</v>
       </c>
       <c r="D84" s="10" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="E84" s="10">
         <v>1000101</v>
@@ -3739,17 +3759,19 @@
       <c r="F84" s="10">
         <v>1000101</v>
       </c>
-      <c r="G84" s="10">
-        <v>0</v>
-      </c>
-      <c r="H84" s="10"/>
+      <c r="G84" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="H84" s="10" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="85" spans="3:8" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C85" s="10">
-        <v>140102</v>
+        <v>120101</v>
       </c>
       <c r="D85" s="10" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="E85" s="10">
         <v>1000101</v>
@@ -3757,19 +3779,17 @@
       <c r="F85" s="10">
         <v>1000101</v>
       </c>
-      <c r="G85" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="H85" s="10" t="s">
-        <v>19</v>
-      </c>
+      <c r="G85" s="10">
+        <v>0</v>
+      </c>
+      <c r="H85" s="10"/>
     </row>
     <row r="86" spans="3:8" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C86" s="10">
-        <v>1401031</v>
+        <v>120102</v>
       </c>
       <c r="D86" s="10" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="E86" s="10">
         <v>1000101</v>
@@ -3786,10 +3806,10 @@
     </row>
     <row r="87" spans="3:8" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C87" s="10">
-        <v>910101</v>
+        <v>1201031</v>
       </c>
       <c r="D87" s="10" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="E87" s="10">
         <v>1000101</v>
@@ -3797,17 +3817,19 @@
       <c r="F87" s="10">
         <v>1000101</v>
       </c>
-      <c r="G87" s="10">
-        <v>0</v>
-      </c>
-      <c r="H87" s="10"/>
+      <c r="G87" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="H87" s="10" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="88" spans="3:8" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C88" s="10">
-        <v>910102</v>
+        <v>130101</v>
       </c>
       <c r="D88" s="10" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="E88" s="10">
         <v>1000101</v>
@@ -3815,19 +3837,17 @@
       <c r="F88" s="10">
         <v>1000101</v>
       </c>
-      <c r="G88" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="H88" s="10" t="s">
-        <v>19</v>
-      </c>
+      <c r="G88" s="10">
+        <v>0</v>
+      </c>
+      <c r="H88" s="10"/>
     </row>
     <row r="89" spans="3:8" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C89" s="10">
-        <v>9101031</v>
+        <v>130102</v>
       </c>
       <c r="D89" s="10" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="E89" s="10">
         <v>1000101</v>
@@ -3836,18 +3856,18 @@
         <v>1000101</v>
       </c>
       <c r="G89" s="10" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="H89" s="10" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
     </row>
     <row r="90" spans="3:8" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C90" s="10">
-        <v>9101041</v>
+        <v>1301031</v>
       </c>
       <c r="D90" s="10" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="E90" s="10">
         <v>1000101</v>
@@ -3856,18 +3876,18 @@
         <v>1000101</v>
       </c>
       <c r="G90" s="10" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="H90" s="10" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
     </row>
     <row r="91" spans="3:8" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C91" s="10">
-        <v>920101</v>
+        <v>1301041</v>
       </c>
       <c r="D91" s="10" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="E91" s="10">
         <v>1000101</v>
@@ -3875,17 +3895,19 @@
       <c r="F91" s="10">
         <v>1000101</v>
       </c>
-      <c r="G91" s="10">
-        <v>0</v>
-      </c>
-      <c r="H91" s="10"/>
+      <c r="G91" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="H91" s="10" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="92" spans="3:8" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C92" s="10">
-        <v>920102</v>
+        <v>140101</v>
       </c>
       <c r="D92" s="10" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="E92" s="10">
         <v>1000101</v>
@@ -3893,19 +3915,17 @@
       <c r="F92" s="10">
         <v>1000101</v>
       </c>
-      <c r="G92" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="H92" s="10" t="s">
-        <v>19</v>
-      </c>
+      <c r="G92" s="10">
+        <v>0</v>
+      </c>
+      <c r="H92" s="10"/>
     </row>
     <row r="93" spans="3:8" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C93" s="10">
-        <v>9201031</v>
+        <v>140102</v>
       </c>
       <c r="D93" s="10" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="E93" s="10">
         <v>1000101</v>
@@ -3914,18 +3934,18 @@
         <v>1000101</v>
       </c>
       <c r="G93" s="10" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="H93" s="10" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
     </row>
     <row r="94" spans="3:8" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C94" s="10">
-        <v>9201041</v>
+        <v>1401031</v>
       </c>
       <c r="D94" s="10" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="E94" s="10">
         <v>1000101</v>
@@ -3942,10 +3962,10 @@
     </row>
     <row r="95" spans="3:8" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C95" s="10">
-        <v>930101</v>
+        <v>910101</v>
       </c>
       <c r="D95" s="10" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="E95" s="10">
         <v>1000101</v>
@@ -3960,10 +3980,10 @@
     </row>
     <row r="96" spans="3:8" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C96" s="10">
-        <v>930102</v>
+        <v>910102</v>
       </c>
       <c r="D96" s="10" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="E96" s="10">
         <v>1000101</v>
@@ -3980,10 +4000,10 @@
     </row>
     <row r="97" spans="3:8" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C97" s="10">
-        <v>9301031</v>
+        <v>9101031</v>
       </c>
       <c r="D97" s="10" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="E97" s="10">
         <v>1000101</v>
@@ -4000,10 +4020,10 @@
     </row>
     <row r="98" spans="3:8" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C98" s="10">
-        <v>9301041</v>
+        <v>9101041</v>
       </c>
       <c r="D98" s="10" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="E98" s="10">
         <v>1000101</v>
@@ -4020,10 +4040,10 @@
     </row>
     <row r="99" spans="3:8" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C99" s="10">
-        <v>200001</v>
+        <v>920101</v>
       </c>
       <c r="D99" s="10" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="E99" s="10">
         <v>1000101</v>
@@ -4031,19 +4051,17 @@
       <c r="F99" s="10">
         <v>1000101</v>
       </c>
-      <c r="G99" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="H99" s="10" t="s">
-        <v>56</v>
-      </c>
+      <c r="G99" s="10">
+        <v>0</v>
+      </c>
+      <c r="H99" s="10"/>
     </row>
     <row r="100" spans="3:8" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C100" s="10">
-        <v>200002</v>
+        <v>920102</v>
       </c>
       <c r="D100" s="10" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="E100" s="10">
         <v>1000101</v>
@@ -4052,34 +4070,192 @@
         <v>1000101</v>
       </c>
       <c r="G100" s="10" t="s">
-        <v>55</v>
+        <v>18</v>
       </c>
       <c r="H100" s="10" t="s">
-        <v>56</v>
+        <v>19</v>
       </c>
     </row>
     <row r="101" spans="3:8" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C101" s="10">
+        <v>9201031</v>
+      </c>
+      <c r="D101" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="E101" s="10">
+        <v>1000101</v>
+      </c>
+      <c r="F101" s="10">
+        <v>1000101</v>
+      </c>
+      <c r="G101" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="H101" s="10" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="102" spans="3:8" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C102" s="10">
+        <v>9201041</v>
+      </c>
+      <c r="D102" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="E102" s="10">
+        <v>1000101</v>
+      </c>
+      <c r="F102" s="10">
+        <v>1000101</v>
+      </c>
+      <c r="G102" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="H102" s="10" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="103" spans="3:8" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C103" s="10">
+        <v>930101</v>
+      </c>
+      <c r="D103" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="E103" s="10">
+        <v>1000101</v>
+      </c>
+      <c r="F103" s="10">
+        <v>1000101</v>
+      </c>
+      <c r="G103" s="10">
+        <v>0</v>
+      </c>
+      <c r="H103" s="10"/>
+    </row>
+    <row r="104" spans="3:8" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C104" s="10">
+        <v>930102</v>
+      </c>
+      <c r="D104" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="E104" s="10">
+        <v>1000101</v>
+      </c>
+      <c r="F104" s="10">
+        <v>1000101</v>
+      </c>
+      <c r="G104" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="H104" s="10" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="105" spans="3:8" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C105" s="10">
+        <v>9301031</v>
+      </c>
+      <c r="D105" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="E105" s="10">
+        <v>1000101</v>
+      </c>
+      <c r="F105" s="10">
+        <v>1000101</v>
+      </c>
+      <c r="G105" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="H105" s="10" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="106" spans="3:8" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C106" s="10">
+        <v>9301041</v>
+      </c>
+      <c r="D106" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="E106" s="10">
+        <v>1000101</v>
+      </c>
+      <c r="F106" s="10">
+        <v>1000101</v>
+      </c>
+      <c r="G106" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="H106" s="10" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="107" spans="3:8" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C107" s="10">
+        <v>200001</v>
+      </c>
+      <c r="D107" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="E107" s="10">
+        <v>1000101</v>
+      </c>
+      <c r="F107" s="10">
+        <v>1000101</v>
+      </c>
+      <c r="G107" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="H107" s="10" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="108" spans="3:8" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C108" s="10">
+        <v>200002</v>
+      </c>
+      <c r="D108" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="E108" s="10">
+        <v>1000101</v>
+      </c>
+      <c r="F108" s="10">
+        <v>1000101</v>
+      </c>
+      <c r="G108" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="H108" s="10" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="109" spans="3:8" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C109" s="10">
         <v>200003</v>
       </c>
-      <c r="D101" s="10" t="s">
+      <c r="D109" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="E101" s="10">
-        <v>1000101</v>
-      </c>
-      <c r="F101" s="10">
-        <v>1000101</v>
-      </c>
-      <c r="G101" s="10" t="s">
+      <c r="E109" s="10">
+        <v>1000101</v>
+      </c>
+      <c r="F109" s="10">
+        <v>1000101</v>
+      </c>
+      <c r="G109" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="H101" s="10" t="s">
+      <c r="H109" s="10" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="102" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="103" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="110" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="111" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <phoneticPr fontId="12" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
